--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lgi4-Adam22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lgi4</t>
   </si>
   <si>
     <t>Adam22</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06754433333333333</v>
+        <v>0.070204</v>
       </c>
       <c r="H2">
-        <v>0.202633</v>
+        <v>0.210612</v>
       </c>
       <c r="I2">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="J2">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.357976666666667</v>
+        <v>0.9949089999999999</v>
       </c>
       <c r="N2">
-        <v>7.07393</v>
+        <v>2.984727</v>
       </c>
       <c r="O2">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="P2">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="Q2">
-        <v>0.1592679619655555</v>
+        <v>0.069846591436</v>
       </c>
       <c r="R2">
-        <v>1.43341165769</v>
+        <v>0.6286193229239999</v>
       </c>
       <c r="S2">
-        <v>0.00937802098237032</v>
+        <v>0.003615316331812161</v>
       </c>
       <c r="T2">
-        <v>0.00937802098237032</v>
+        <v>0.003615316331812161</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06754433333333333</v>
+        <v>0.070204</v>
       </c>
       <c r="H3">
-        <v>0.202633</v>
+        <v>0.210612</v>
       </c>
       <c r="I3">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="J3">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>4.959485</v>
       </c>
       <c r="O3">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="P3">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="Q3">
-        <v>0.1116617026672222</v>
+        <v>0.1160585616466667</v>
       </c>
       <c r="R3">
-        <v>1.004955324005</v>
+        <v>1.04452705482</v>
       </c>
       <c r="S3">
-        <v>0.006574867773889601</v>
+        <v>0.006007285462917524</v>
       </c>
       <c r="T3">
-        <v>0.006574867773889601</v>
+        <v>0.006007285462917524</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06754433333333333</v>
+        <v>0.070204</v>
       </c>
       <c r="H4">
-        <v>0.202633</v>
+        <v>0.210612</v>
       </c>
       <c r="I4">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="J4">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.33798</v>
+        <v>1.748891</v>
       </c>
       <c r="N4">
-        <v>1.01394</v>
+        <v>5.246673</v>
       </c>
       <c r="O4">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="P4">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="Q4">
-        <v>0.02282863378</v>
+        <v>0.122779143764</v>
       </c>
       <c r="R4">
-        <v>0.20545770402</v>
+        <v>1.105012293876</v>
       </c>
       <c r="S4">
-        <v>0.001344196308821908</v>
+        <v>0.006355148254623591</v>
       </c>
       <c r="T4">
-        <v>0.001344196308821908</v>
+        <v>0.006355148254623591</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06754433333333333</v>
+        <v>0.070204</v>
       </c>
       <c r="H5">
-        <v>0.202633</v>
+        <v>0.210612</v>
       </c>
       <c r="I5">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="J5">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8267596666666667</v>
+        <v>0.7268083333333334</v>
       </c>
       <c r="N5">
-        <v>2.480279</v>
+        <v>2.180425</v>
       </c>
       <c r="O5">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="P5">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="Q5">
-        <v>0.05584293051188888</v>
+        <v>0.05102485223333334</v>
       </c>
       <c r="R5">
-        <v>0.502586374607</v>
+        <v>0.4592236701</v>
       </c>
       <c r="S5">
-        <v>0.003288145133487675</v>
+        <v>0.002641087815666736</v>
       </c>
       <c r="T5">
-        <v>0.003288145133487675</v>
+        <v>0.002641087815666736</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06754433333333333</v>
+        <v>0.070204</v>
       </c>
       <c r="H6">
-        <v>0.202633</v>
+        <v>0.210612</v>
       </c>
       <c r="I6">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="J6">
-        <v>0.02266275549884949</v>
+        <v>0.02448037096458673</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5223656666666666</v>
+        <v>1.613051666666667</v>
       </c>
       <c r="N6">
-        <v>1.567097</v>
+        <v>4.839155</v>
       </c>
       <c r="O6">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="P6">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="Q6">
-        <v>0.03528284071122222</v>
+        <v>0.1132426792066667</v>
       </c>
       <c r="R6">
-        <v>0.317545566401</v>
+        <v>1.01918411286</v>
       </c>
       <c r="S6">
-        <v>0.002077525300279983</v>
+        <v>0.005861533099566719</v>
       </c>
       <c r="T6">
-        <v>0.002077525300279983</v>
+        <v>0.00586153309956672</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>6.907145</v>
       </c>
       <c r="I7">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="J7">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.357976666666667</v>
+        <v>0.9949089999999999</v>
       </c>
       <c r="N7">
-        <v>7.07393</v>
+        <v>2.984727</v>
       </c>
       <c r="O7">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="P7">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="Q7">
-        <v>5.428962247761111</v>
+        <v>2.290660241601667</v>
       </c>
       <c r="R7">
-        <v>48.86066022985</v>
+        <v>20.615942174415</v>
       </c>
       <c r="S7">
-        <v>0.3196683202552114</v>
+        <v>0.1185664355530298</v>
       </c>
       <c r="T7">
-        <v>0.3196683202552114</v>
+        <v>0.1185664355530298</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>6.907145</v>
       </c>
       <c r="I8">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="J8">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>4.959485</v>
       </c>
       <c r="O8">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="P8">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="Q8">
         <v>3.806209113369444</v>
@@ -948,10 +948,10 @@
         <v>34.255882020325</v>
       </c>
       <c r="S8">
-        <v>0.2241173208217945</v>
+        <v>0.1970124767285979</v>
       </c>
       <c r="T8">
-        <v>0.2241173208217945</v>
+        <v>0.1970124767285979</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>6.907145</v>
       </c>
       <c r="I9">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="J9">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.33798</v>
+        <v>1.748891</v>
       </c>
       <c r="N9">
-        <v>1.01394</v>
+        <v>5.246673</v>
       </c>
       <c r="O9">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="P9">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="Q9">
-        <v>0.7781589557</v>
+        <v>4.026614575398334</v>
       </c>
       <c r="R9">
-        <v>7.003430601300001</v>
+        <v>36.239531178585</v>
       </c>
       <c r="S9">
-        <v>0.04581957930592599</v>
+        <v>0.2084208425501969</v>
       </c>
       <c r="T9">
-        <v>0.04581957930592599</v>
+        <v>0.2084208425501969</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>6.907145</v>
       </c>
       <c r="I10">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="J10">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8267596666666667</v>
+        <v>0.7268083333333334</v>
       </c>
       <c r="N10">
-        <v>2.480279</v>
+        <v>2.180425</v>
       </c>
       <c r="O10">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="P10">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="Q10">
-        <v>1.903516299272778</v>
+        <v>1.673390181847222</v>
       </c>
       <c r="R10">
-        <v>17.131646693455</v>
+        <v>15.060511636625</v>
       </c>
       <c r="S10">
-        <v>0.1120829046504949</v>
+        <v>0.08661603565107126</v>
       </c>
       <c r="T10">
-        <v>0.1120829046504949</v>
+        <v>0.08661603565107126</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>6.907145</v>
       </c>
       <c r="I11">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="J11">
-        <v>0.7725046677002302</v>
+        <v>0.8028482323238487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5223656666666666</v>
+        <v>1.613051666666667</v>
       </c>
       <c r="N11">
-        <v>1.567097</v>
+        <v>4.839155</v>
       </c>
       <c r="O11">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="P11">
-        <v>0.09167134598374201</v>
+        <v>0.2394380831910597</v>
       </c>
       <c r="Q11">
-        <v>1.202685134229444</v>
+        <v>3.713860584719444</v>
       </c>
       <c r="R11">
-        <v>10.824166208065</v>
+        <v>33.424745262475</v>
       </c>
       <c r="S11">
-        <v>0.07081654266680346</v>
+        <v>0.1922324418409529</v>
       </c>
       <c r="T11">
-        <v>0.07081654266680346</v>
+        <v>0.1922324418409529</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.6104853333333333</v>
+        <v>0.02759</v>
       </c>
       <c r="H12">
-        <v>1.831456</v>
+        <v>0.08277</v>
       </c>
       <c r="I12">
-        <v>0.2048325768009203</v>
+        <v>0.009620725812103981</v>
       </c>
       <c r="J12">
-        <v>0.2048325768009203</v>
+        <v>0.009620725812103981</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.357976666666667</v>
+        <v>0.9949089999999999</v>
       </c>
       <c r="N12">
-        <v>7.07393</v>
+        <v>2.984727</v>
       </c>
       <c r="O12">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="P12">
-        <v>0.4138076229453391</v>
+        <v>0.1476822527339178</v>
       </c>
       <c r="Q12">
-        <v>1.439510171342222</v>
+        <v>0.02744953931</v>
       </c>
       <c r="R12">
-        <v>12.95559154208</v>
+        <v>0.24704585379</v>
       </c>
       <c r="S12">
-        <v>0.08476128170775744</v>
+        <v>0.001420810460866867</v>
       </c>
       <c r="T12">
-        <v>0.08476128170775746</v>
+        <v>0.001420810460866867</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.6104853333333333</v>
+        <v>0.02759</v>
       </c>
       <c r="H13">
-        <v>1.831456</v>
+        <v>0.08277</v>
       </c>
       <c r="I13">
-        <v>0.2048325768009203</v>
+        <v>0.009620725812103981</v>
       </c>
       <c r="J13">
-        <v>0.2048325768009203</v>
+        <v>0.009620725812103981</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>4.959485</v>
       </c>
       <c r="O13">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="P13">
-        <v>0.2901177561670903</v>
+        <v>0.2453919293791607</v>
       </c>
       <c r="Q13">
-        <v>1.009230951128889</v>
+        <v>0.04561073038333333</v>
       </c>
       <c r="R13">
-        <v>9.083078560160001</v>
+        <v>0.41049657345</v>
       </c>
       <c r="S13">
-        <v>0.0594255675714062</v>
+        <v>0.002360848469060089</v>
       </c>
       <c r="T13">
-        <v>0.05942556757140621</v>
+        <v>0.002360848469060089</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.6104853333333333</v>
+        <v>0.02759</v>
       </c>
       <c r="H14">
-        <v>1.831456</v>
+        <v>0.08277</v>
       </c>
       <c r="I14">
-        <v>0.2048325768009203</v>
+        <v>0.009620725812103981</v>
       </c>
       <c r="J14">
-        <v>0.2048325768009203</v>
+        <v>0.009620725812103981</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.33798</v>
+        <v>1.748891</v>
       </c>
       <c r="N14">
-        <v>1.01394</v>
+        <v>5.246673</v>
       </c>
       <c r="O14">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="P14">
-        <v>0.05931301288098655</v>
+        <v>0.2596017954064887</v>
       </c>
       <c r="Q14">
-        <v>0.20633183296</v>
+        <v>0.04825190269000001</v>
       </c>
       <c r="R14">
-        <v>1.85698649664</v>
+        <v>0.43426712421</v>
       </c>
       <c r="S14">
-        <v>0.01214923726623865</v>
+        <v>0.002497557693935743</v>
       </c>
       <c r="T14">
-        <v>0.01214923726623865</v>
+        <v>0.002497557693935743</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.6104853333333333</v>
+        <v>0.02759</v>
       </c>
       <c r="H15">
-        <v>1.831456</v>
+        <v>0.08277</v>
       </c>
       <c r="I15">
-        <v>0.2048325768009203</v>
+        <v>0.009620725812103981</v>
       </c>
       <c r="J15">
-        <v>0.2048325768009203</v>
+        <v>0.009620725812103981</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8267596666666667</v>
+        <v>0.7268083333333334</v>
       </c>
       <c r="N15">
-        <v>2.480279</v>
+        <v>2.180425</v>
       </c>
       <c r="O15">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="P15">
-        <v>0.145090262022842</v>
+        <v>0.1078859392893731</v>
       </c>
       <c r="Q15">
-        <v>0.5047246506915556</v>
+        <v>0.02005264191666667</v>
       </c>
       <c r="R15">
-        <v>4.542521856224</v>
+        <v>0.18047377725</v>
       </c>
       <c r="S15">
-        <v>0.02971921223885943</v>
+        <v>0.001037941040884355</v>
       </c>
       <c r="T15">
-        <v>0.02971921223885944</v>
+        <v>0.001037941040884355</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02759</v>
+      </c>
+      <c r="H16">
+        <v>0.08277</v>
+      </c>
+      <c r="I16">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="J16">
+        <v>0.009620725812103981</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.613051666666667</v>
+      </c>
+      <c r="N16">
+        <v>4.839155</v>
+      </c>
+      <c r="O16">
+        <v>0.2394380831910597</v>
+      </c>
+      <c r="P16">
+        <v>0.2394380831910597</v>
+      </c>
+      <c r="Q16">
+        <v>0.04450409548333333</v>
+      </c>
+      <c r="R16">
+        <v>0.40053685935</v>
+      </c>
+      <c r="S16">
+        <v>0.002303568147356928</v>
+      </c>
+      <c r="T16">
+        <v>0.002303568147356929</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.310138</v>
+      </c>
+      <c r="I17">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J17">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9949089999999999</v>
+      </c>
+      <c r="N17">
+        <v>2.984727</v>
+      </c>
+      <c r="O17">
+        <v>0.1476822527339178</v>
+      </c>
+      <c r="P17">
+        <v>0.1476822527339178</v>
+      </c>
+      <c r="Q17">
+        <v>0.4344893624806667</v>
+      </c>
+      <c r="R17">
+        <v>3.910404262326</v>
+      </c>
+      <c r="S17">
+        <v>0.02248952247890776</v>
+      </c>
+      <c r="T17">
+        <v>0.02248952247890776</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H18">
+        <v>1.310138</v>
+      </c>
+      <c r="I18">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J18">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.653161666666667</v>
+      </c>
+      <c r="N18">
+        <v>4.959485</v>
+      </c>
+      <c r="O18">
+        <v>0.2453919293791607</v>
+      </c>
+      <c r="P18">
+        <v>0.2453919293791607</v>
+      </c>
+      <c r="Q18">
+        <v>0.7219566398811111</v>
+      </c>
+      <c r="R18">
+        <v>6.49760975893</v>
+      </c>
+      <c r="S18">
+        <v>0.03736906236024462</v>
+      </c>
+      <c r="T18">
+        <v>0.03736906236024462</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H19">
+        <v>1.310138</v>
+      </c>
+      <c r="I19">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J19">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.748891</v>
+      </c>
+      <c r="N19">
+        <v>5.246673</v>
+      </c>
+      <c r="O19">
+        <v>0.2596017954064887</v>
+      </c>
+      <c r="P19">
+        <v>0.2596017954064887</v>
+      </c>
+      <c r="Q19">
+        <v>0.7637628523193335</v>
+      </c>
+      <c r="R19">
+        <v>6.873865670874</v>
+      </c>
+      <c r="S19">
+        <v>0.03953298588881946</v>
+      </c>
+      <c r="T19">
+        <v>0.03953298588881946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.310138</v>
+      </c>
+      <c r="I20">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J20">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.7268083333333334</v>
+      </c>
+      <c r="N20">
+        <v>2.180425</v>
+      </c>
+      <c r="O20">
+        <v>0.1078859392893731</v>
+      </c>
+      <c r="P20">
+        <v>0.1078859392893731</v>
+      </c>
+      <c r="Q20">
+        <v>0.3174064054055556</v>
+      </c>
+      <c r="R20">
+        <v>2.85665764865</v>
+      </c>
+      <c r="S20">
+        <v>0.01642921347616464</v>
+      </c>
+      <c r="T20">
+        <v>0.01642921347616464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.6104853333333333</v>
-      </c>
-      <c r="H16">
-        <v>1.831456</v>
-      </c>
-      <c r="I16">
-        <v>0.2048325768009203</v>
-      </c>
-      <c r="J16">
-        <v>0.2048325768009203</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.5223656666666666</v>
-      </c>
-      <c r="N16">
-        <v>1.567097</v>
-      </c>
-      <c r="O16">
-        <v>0.09167134598374201</v>
-      </c>
-      <c r="P16">
-        <v>0.09167134598374201</v>
-      </c>
-      <c r="Q16">
-        <v>0.3188965781368889</v>
-      </c>
-      <c r="R16">
-        <v>2.870069203232</v>
-      </c>
-      <c r="S16">
-        <v>0.01877727801665857</v>
-      </c>
-      <c r="T16">
-        <v>0.01877727801665857</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4367126666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.310138</v>
+      </c>
+      <c r="I21">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="J21">
+        <v>0.1522831759576934</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.613051666666667</v>
+      </c>
+      <c r="N21">
+        <v>4.839155</v>
+      </c>
+      <c r="O21">
+        <v>0.2394380831910597</v>
+      </c>
+      <c r="P21">
+        <v>0.2394380831910597</v>
+      </c>
+      <c r="Q21">
+        <v>0.7044400948211111</v>
+      </c>
+      <c r="R21">
+        <v>6.33996085339</v>
+      </c>
+      <c r="S21">
+        <v>0.03646239175355698</v>
+      </c>
+      <c r="T21">
+        <v>0.03646239175355698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.092636</v>
+      </c>
+      <c r="I22">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J22">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.9949089999999999</v>
+      </c>
+      <c r="N22">
+        <v>2.984727</v>
+      </c>
+      <c r="O22">
+        <v>0.1476822527339178</v>
+      </c>
+      <c r="P22">
+        <v>0.1476822527339178</v>
+      </c>
+      <c r="Q22">
+        <v>0.03072146337466666</v>
+      </c>
+      <c r="R22">
+        <v>0.276493170372</v>
+      </c>
+      <c r="S22">
+        <v>0.001590167909301233</v>
+      </c>
+      <c r="T22">
+        <v>0.001590167909301233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.092636</v>
+      </c>
+      <c r="I23">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J23">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.653161666666667</v>
+      </c>
+      <c r="N23">
+        <v>4.959485</v>
+      </c>
+      <c r="O23">
+        <v>0.2453919293791607</v>
+      </c>
+      <c r="P23">
+        <v>0.2453919293791607</v>
+      </c>
+      <c r="Q23">
+        <v>0.05104742805111111</v>
+      </c>
+      <c r="R23">
+        <v>0.45942685246</v>
+      </c>
+      <c r="S23">
+        <v>0.002642256358340587</v>
+      </c>
+      <c r="T23">
+        <v>0.002642256358340587</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.092636</v>
+      </c>
+      <c r="I24">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J24">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.748891</v>
+      </c>
+      <c r="N24">
+        <v>5.246673</v>
+      </c>
+      <c r="O24">
+        <v>0.2596017954064887</v>
+      </c>
+      <c r="P24">
+        <v>0.2596017954064887</v>
+      </c>
+      <c r="Q24">
+        <v>0.05400342222533334</v>
+      </c>
+      <c r="R24">
+        <v>0.486030800028</v>
+      </c>
+      <c r="S24">
+        <v>0.002795261018913029</v>
+      </c>
+      <c r="T24">
+        <v>0.002795261018913029</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.092636</v>
+      </c>
+      <c r="I25">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J25">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.7268083333333334</v>
+      </c>
+      <c r="N25">
+        <v>2.180425</v>
+      </c>
+      <c r="O25">
+        <v>0.1078859392893731</v>
+      </c>
+      <c r="P25">
+        <v>0.1078859392893731</v>
+      </c>
+      <c r="Q25">
+        <v>0.02244287225555556</v>
+      </c>
+      <c r="R25">
+        <v>0.2019858503</v>
+      </c>
+      <c r="S25">
+        <v>0.001161661305586119</v>
+      </c>
+      <c r="T25">
+        <v>0.001161661305586119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.03087866666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.092636</v>
+      </c>
+      <c r="I26">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="J26">
+        <v>0.01076749494176712</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.613051666666667</v>
+      </c>
+      <c r="N26">
+        <v>4.839155</v>
+      </c>
+      <c r="O26">
+        <v>0.2394380831910597</v>
+      </c>
+      <c r="P26">
+        <v>0.2394380831910597</v>
+      </c>
+      <c r="Q26">
+        <v>0.04980888473111111</v>
+      </c>
+      <c r="R26">
+        <v>0.44827996258</v>
+      </c>
+      <c r="S26">
+        <v>0.002578148349626149</v>
+      </c>
+      <c r="T26">
+        <v>0.00257814834962615</v>
       </c>
     </row>
   </sheetData>
